--- a/PythonResources/Data/Consumption/Sympheny/base_CA_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_CA_coo.xlsx
@@ -687,7 +687,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>210.8956778469361</v>
+        <v>210.895677846936</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -807,7 +807,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>397.1288416484426</v>
+        <v>397.1288416484425</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>728.3782445162013</v>
+        <v>728.3782445162012</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -879,7 +879,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>553.6346377143742</v>
+        <v>553.6346377143741</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>603.8113302435831</v>
+        <v>603.811330243583</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>865.1691518113843</v>
+        <v>865.1691518113842</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>365.5445758119094</v>
+        <v>365.5445758119093</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>372.3614081711723</v>
+        <v>372.3614081711722</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>213.8993629221762</v>
+        <v>213.8993629221761</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>211.6758329518526</v>
+        <v>211.6758329518525</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>243.410444231219</v>
+        <v>243.4104442312189</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>5.404757480784798</v>
+        <v>5.404757480784797</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>649.1054592686941</v>
+        <v>649.1054592686939</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>198.4477785508341</v>
+        <v>198.447778550834</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>320.5552406670063</v>
+        <v>320.5552406670062</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>568.2676746747352</v>
+        <v>568.2676746747351</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>115.6080256917796</v>
+        <v>115.6080256917795</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>48.92146927062239</v>
+        <v>48.92146927062238</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>91.95279680622906</v>
+        <v>91.95279680622905</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>415</v>
       </c>
       <c r="B415">
-        <v>2.802588520641873</v>
+        <v>2.802588520641872</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>424</v>
       </c>
       <c r="B424">
-        <v>80.93420496567846</v>
+        <v>80.93420496567845</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>49.26055246235357</v>
+        <v>49.26055246235356</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>440</v>
       </c>
       <c r="B440">
-        <v>13.58595275343172</v>
+        <v>13.58595275343171</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -4855,7 +4855,7 @@
         <v>564</v>
       </c>
       <c r="B564">
-        <v>2.626860195150144</v>
+        <v>2.626860195150143</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4863,7 +4863,7 @@
         <v>565</v>
       </c>
       <c r="B565">
-        <v>6.823983292606229</v>
+        <v>6.823983292606228</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>595</v>
       </c>
       <c r="B595">
-        <v>83.97100706828732</v>
+        <v>83.97100706828731</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>243.3799648431983</v>
+        <v>243.3799648431982</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>45.61211110205848</v>
+        <v>45.61211110205847</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>727</v>
       </c>
       <c r="B727">
-        <v>5.103949366702794</v>
+        <v>5.103949366702793</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>736</v>
       </c>
       <c r="B736">
-        <v>337.3013198161156</v>
+        <v>337.3013198161155</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>89.9221075793446</v>
+        <v>89.92210757934458</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>5.338435504735736</v>
+        <v>5.338435504735735</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>894</v>
       </c>
       <c r="B894">
-        <v>15.69398342741891</v>
+        <v>15.6939834274189</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7903,7 +7903,7 @@
         <v>945</v>
       </c>
       <c r="B945">
-        <v>368.1118781105828</v>
+        <v>368.1118781105827</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7919,7 +7919,7 @@
         <v>947</v>
       </c>
       <c r="B947">
-        <v>366.4296503486667</v>
+        <v>366.4296503486666</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7935,7 +7935,7 @@
         <v>949</v>
       </c>
       <c r="B949">
-        <v>402.6209929129562</v>
+        <v>402.6209929129561</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -8463,7 +8463,7 @@
         <v>1015</v>
       </c>
       <c r="B1015">
-        <v>39.16659974877951</v>
+        <v>39.1665997487795</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8519,7 +8519,7 @@
         <v>1022</v>
       </c>
       <c r="B1022">
-        <v>97.38135165535316</v>
+        <v>97.38135165535314</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8719,7 +8719,7 @@
         <v>1047</v>
       </c>
       <c r="B1047">
-        <v>219.5008296841105</v>
+        <v>219.5008296841104</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8879,7 +8879,7 @@
         <v>1067</v>
       </c>
       <c r="B1067">
-        <v>452.3141182283739</v>
+        <v>452.3141182283738</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>1071</v>
       </c>
       <c r="B1071">
-        <v>475.7041178239359</v>
+        <v>475.7041178239358</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -9079,7 +9079,7 @@
         <v>1092</v>
       </c>
       <c r="B1092">
-        <v>258.0173978691392</v>
+        <v>258.0173978691391</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9119,7 +9119,7 @@
         <v>1097</v>
       </c>
       <c r="B1097">
-        <v>341.8028909699538</v>
+        <v>341.8028909699537</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -10071,7 +10071,7 @@
         <v>1216</v>
       </c>
       <c r="B1216">
-        <v>454.330446974364</v>
+        <v>454.3304469743639</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
@@ -10079,7 +10079,7 @@
         <v>1217</v>
       </c>
       <c r="B1217">
-        <v>520.4589961379099</v>
+        <v>520.4589961379098</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10439,7 +10439,7 @@
         <v>1262</v>
       </c>
       <c r="B1262">
-        <v>564.6042866914684</v>
+        <v>564.6042866914682</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
@@ -10583,7 +10583,7 @@
         <v>1280</v>
       </c>
       <c r="B1280">
-        <v>439.1933278275055</v>
+        <v>439.1933278275054</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -10607,7 +10607,7 @@
         <v>1283</v>
       </c>
       <c r="B1283">
-        <v>499.0648103156317</v>
+        <v>499.0648103156316</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
@@ -11015,7 +11015,7 @@
         <v>1334</v>
       </c>
       <c r="B1334">
-        <v>4.151615026572752</v>
+        <v>4.151615026572751</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>531.4432986669372</v>
+        <v>531.443298666937</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11399,7 +11399,7 @@
         <v>1382</v>
       </c>
       <c r="B1382">
-        <v>642.5113608988138</v>
+        <v>642.5113608988137</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -11407,7 +11407,7 @@
         <v>1383</v>
       </c>
       <c r="B1383">
-        <v>697.7757666591837</v>
+        <v>697.7757666591835</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
@@ -11431,7 +11431,7 @@
         <v>1386</v>
       </c>
       <c r="B1386">
-        <v>616.7299016277752</v>
+        <v>616.7299016277751</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
@@ -11535,7 +11535,7 @@
         <v>1399</v>
       </c>
       <c r="B1399">
-        <v>675.3001487042451</v>
+        <v>675.300148704245</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -11559,7 +11559,7 @@
         <v>1402</v>
       </c>
       <c r="B1402">
-        <v>808.6504020055438</v>
+        <v>808.6504020055437</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
@@ -11599,7 +11599,7 @@
         <v>1407</v>
       </c>
       <c r="B1407">
-        <v>766.4100732032841</v>
+        <v>766.410073203284</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>243.3884639033194</v>
+        <v>243.3884639033193</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12015,7 +12015,7 @@
         <v>1459</v>
       </c>
       <c r="B1459">
-        <v>83.74387701332478</v>
+        <v>83.74387701332476</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12487,7 +12487,7 @@
         <v>1518</v>
       </c>
       <c r="B1518">
-        <v>49.96626752345009</v>
+        <v>49.96626752345008</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
@@ -12495,7 +12495,7 @@
         <v>1519</v>
       </c>
       <c r="B1519">
-        <v>52.52917375654355</v>
+        <v>52.52917375654354</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
@@ -12519,7 +12519,7 @@
         <v>1522</v>
       </c>
       <c r="B1522">
-        <v>177.0908127504659</v>
+        <v>177.0908127504658</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
@@ -12711,7 +12711,7 @@
         <v>1546</v>
       </c>
       <c r="B1546">
-        <v>340.1734159949968</v>
+        <v>340.1734159949967</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
@@ -12967,7 +12967,7 @@
         <v>1578</v>
       </c>
       <c r="B1578">
-        <v>764.3702987742012</v>
+        <v>764.370298774201</v>
       </c>
     </row>
     <row r="1579" spans="1:2">
@@ -13311,7 +13311,7 @@
         <v>1621</v>
       </c>
       <c r="B1621">
-        <v>199.9764370884917</v>
+        <v>199.9764370884916</v>
       </c>
     </row>
     <row r="1622" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>313.5449814222269</v>
+        <v>313.5449814222268</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -14095,7 +14095,7 @@
         <v>1719</v>
       </c>
       <c r="B1719">
-        <v>351.9695253011159</v>
+        <v>351.9695253011158</v>
       </c>
     </row>
     <row r="1720" spans="1:2">
@@ -14111,7 +14111,7 @@
         <v>1721</v>
       </c>
       <c r="B1721">
-        <v>438.173440612964</v>
+        <v>438.1734406129639</v>
       </c>
     </row>
     <row r="1722" spans="1:2">
@@ -14215,7 +14215,7 @@
         <v>1734</v>
       </c>
       <c r="B1734">
-        <v>175.0437115454164</v>
+        <v>175.0437115454163</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14223,7 +14223,7 @@
         <v>1735</v>
       </c>
       <c r="B1735">
-        <v>157.4705859252048</v>
+        <v>157.4705859252047</v>
       </c>
     </row>
     <row r="1736" spans="1:2">
@@ -14463,7 +14463,7 @@
         <v>1765</v>
       </c>
       <c r="B1765">
-        <v>450.9366843466656</v>
+        <v>450.9366843466655</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -14471,7 +14471,7 @@
         <v>1766</v>
       </c>
       <c r="B1766">
-        <v>446.6490550510501</v>
+        <v>446.64905505105</v>
       </c>
     </row>
     <row r="1767" spans="1:2">
@@ -14615,7 +14615,7 @@
         <v>1784</v>
       </c>
       <c r="B1784">
-        <v>257.3802614310894</v>
+        <v>257.3802614310893</v>
       </c>
     </row>
     <row r="1785" spans="1:2">
@@ -14655,7 +14655,7 @@
         <v>1789</v>
       </c>
       <c r="B1789">
-        <v>392.9467179267452</v>
+        <v>392.9467179267451</v>
       </c>
     </row>
     <row r="1790" spans="1:2">
@@ -15199,7 +15199,7 @@
         <v>1857</v>
       </c>
       <c r="B1857">
-        <v>265.0560850046687</v>
+        <v>265.0560850046686</v>
       </c>
     </row>
     <row r="1858" spans="1:2">
@@ -15231,7 +15231,7 @@
         <v>1861</v>
       </c>
       <c r="B1861">
-        <v>584.5507015827595</v>
+        <v>584.5507015827594</v>
       </c>
     </row>
     <row r="1862" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>694.0420416266381</v>
+        <v>694.042041626638</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15263,7 +15263,7 @@
         <v>1865</v>
       </c>
       <c r="B1865">
-        <v>624.6486810924048</v>
+        <v>624.6486810924047</v>
       </c>
     </row>
     <row r="1866" spans="1:2">
@@ -15551,7 +15551,7 @@
         <v>1901</v>
       </c>
       <c r="B1901">
-        <v>219.200138798444</v>
+        <v>219.2001387984439</v>
       </c>
     </row>
     <row r="1902" spans="1:2">
@@ -15615,7 +15615,7 @@
         <v>1909</v>
       </c>
       <c r="B1909">
-        <v>463.2603215223752</v>
+        <v>463.2603215223751</v>
       </c>
     </row>
     <row r="1910" spans="1:2">
@@ -15647,7 +15647,7 @@
         <v>1913</v>
       </c>
       <c r="B1913">
-        <v>499.252375780375</v>
+        <v>499.2523757803749</v>
       </c>
     </row>
     <row r="1914" spans="1:2">
@@ -15807,7 +15807,7 @@
         <v>1933</v>
       </c>
       <c r="B1933">
-        <v>646.4854041830616</v>
+        <v>646.4854041830615</v>
       </c>
     </row>
     <row r="1934" spans="1:2">
@@ -15815,7 +15815,7 @@
         <v>1934</v>
       </c>
       <c r="B1934">
-        <v>717.2767135717096</v>
+        <v>717.2767135717095</v>
       </c>
     </row>
     <row r="1935" spans="1:2">
@@ -15823,7 +15823,7 @@
         <v>1935</v>
       </c>
       <c r="B1935">
-        <v>786.3389038322556</v>
+        <v>786.3389038322555</v>
       </c>
     </row>
     <row r="1936" spans="1:2">
@@ -15839,7 +15839,7 @@
         <v>1937</v>
       </c>
       <c r="B1937">
-        <v>746.8798191868921</v>
+        <v>746.879819186892</v>
       </c>
     </row>
     <row r="1938" spans="1:2">
@@ -15975,7 +15975,7 @@
         <v>1954</v>
       </c>
       <c r="B1954">
-        <v>367.3000713334909</v>
+        <v>367.3000713334908</v>
       </c>
     </row>
     <row r="1955" spans="1:2">
@@ -15991,7 +15991,7 @@
         <v>1956</v>
       </c>
       <c r="B1956">
-        <v>380.8077155053923</v>
+        <v>380.8077155053922</v>
       </c>
     </row>
     <row r="1957" spans="1:2">
@@ -16535,7 +16535,7 @@
         <v>2024</v>
       </c>
       <c r="B2024">
-        <v>211.6515080556437</v>
+        <v>211.6515080556436</v>
       </c>
     </row>
     <row r="2025" spans="1:2">
@@ -16599,7 +16599,7 @@
         <v>2032</v>
       </c>
       <c r="B2032">
-        <v>327.0672791460614</v>
+        <v>327.0672791460613</v>
       </c>
     </row>
     <row r="2033" spans="1:2">
@@ -16751,7 +16751,7 @@
         <v>2051</v>
       </c>
       <c r="B2051">
-        <v>305.4855278590399</v>
+        <v>305.4855278590398</v>
       </c>
     </row>
     <row r="2052" spans="1:2">
@@ -16951,7 +16951,7 @@
         <v>2076</v>
       </c>
       <c r="B2076">
-        <v>431.8313833363325</v>
+        <v>431.8313833363324</v>
       </c>
     </row>
     <row r="2077" spans="1:2">
@@ -17135,7 +17135,7 @@
         <v>2099</v>
       </c>
       <c r="B2099">
-        <v>473.0694091863704</v>
+        <v>473.0694091863703</v>
       </c>
     </row>
     <row r="2100" spans="1:2">
@@ -17143,7 +17143,7 @@
         <v>2100</v>
       </c>
       <c r="B2100">
-        <v>489.4344959852199</v>
+        <v>489.4344959852198</v>
       </c>
     </row>
     <row r="2101" spans="1:2">
@@ -17151,7 +17151,7 @@
         <v>2101</v>
       </c>
       <c r="B2101">
-        <v>500.1960645248645</v>
+        <v>500.1960645248644</v>
       </c>
     </row>
     <row r="2102" spans="1:2">
@@ -17167,7 +17167,7 @@
         <v>2103</v>
       </c>
       <c r="B2103">
-        <v>636.8697434045829</v>
+        <v>636.8697434045828</v>
       </c>
     </row>
     <row r="2104" spans="1:2">
@@ -17191,7 +17191,7 @@
         <v>2106</v>
       </c>
       <c r="B2106">
-        <v>575.5006679088972</v>
+        <v>575.5006679088971</v>
       </c>
     </row>
     <row r="2107" spans="1:2">
@@ -17375,7 +17375,7 @@
         <v>2129</v>
       </c>
       <c r="B2129">
-        <v>823.6234013707519</v>
+        <v>823.6234013707518</v>
       </c>
     </row>
     <row r="2130" spans="1:2">
@@ -17911,7 +17911,7 @@
         <v>2196</v>
       </c>
       <c r="B2196">
-        <v>639.8326916054491</v>
+        <v>639.832691605449</v>
       </c>
     </row>
     <row r="2197" spans="1:2">
@@ -17927,7 +17927,7 @@
         <v>2198</v>
       </c>
       <c r="B2198">
-        <v>733.8410886768488</v>
+        <v>733.8410886768487</v>
       </c>
     </row>
     <row r="2199" spans="1:2">
@@ -17951,7 +17951,7 @@
         <v>2201</v>
       </c>
       <c r="B2201">
-        <v>793.4107079951539</v>
+        <v>793.4107079951538</v>
       </c>
     </row>
     <row r="2202" spans="1:2">
@@ -18055,7 +18055,7 @@
         <v>2214</v>
       </c>
       <c r="B2214">
-        <v>338.5732481239058</v>
+        <v>338.5732481239057</v>
       </c>
     </row>
     <row r="2215" spans="1:2">
@@ -18239,7 +18239,7 @@
         <v>2237</v>
       </c>
       <c r="B2237">
-        <v>400.4698514891819</v>
+        <v>400.4698514891818</v>
       </c>
     </row>
     <row r="2238" spans="1:2">
@@ -18255,7 +18255,7 @@
         <v>2239</v>
       </c>
       <c r="B2239">
-        <v>500.2107180767976</v>
+        <v>500.2107180767975</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
@@ -18655,7 +18655,7 @@
         <v>2289</v>
       </c>
       <c r="B2289">
-        <v>798.633233904099</v>
+        <v>798.6332339040989</v>
       </c>
     </row>
     <row r="2290" spans="1:2">
@@ -19247,7 +19247,7 @@
         <v>2363</v>
       </c>
       <c r="B2363">
-        <v>365.2544354836347</v>
+        <v>365.2544354836346</v>
       </c>
     </row>
     <row r="2364" spans="1:2">
@@ -19279,7 +19279,7 @@
         <v>2367</v>
       </c>
       <c r="B2367">
-        <v>467.1669584677309</v>
+        <v>467.1669584677308</v>
       </c>
     </row>
     <row r="2368" spans="1:2">
@@ -19287,7 +19287,7 @@
         <v>2368</v>
       </c>
       <c r="B2368">
-        <v>506.3652098886858</v>
+        <v>506.3652098886857</v>
       </c>
     </row>
     <row r="2369" spans="1:2">
@@ -19399,7 +19399,7 @@
         <v>2382</v>
       </c>
       <c r="B2382">
-        <v>89.08949275850772</v>
+        <v>89.0894927585077</v>
       </c>
     </row>
     <row r="2383" spans="1:2">
@@ -19407,7 +19407,7 @@
         <v>2383</v>
       </c>
       <c r="B2383">
-        <v>137.560218771669</v>
+        <v>137.5602187716689</v>
       </c>
     </row>
     <row r="2384" spans="1:2">
@@ -19447,7 +19447,7 @@
         <v>2388</v>
       </c>
       <c r="B2388">
-        <v>404.7721343367305</v>
+        <v>404.7721343367304</v>
       </c>
     </row>
     <row r="2389" spans="1:2">
@@ -19671,7 +19671,7 @@
         <v>2416</v>
       </c>
       <c r="B2416">
-        <v>827.5534839992006</v>
+        <v>827.5534839992005</v>
       </c>
     </row>
     <row r="2417" spans="1:2">
@@ -19823,7 +19823,7 @@
         <v>2435</v>
       </c>
       <c r="B2435">
-        <v>744.2773483635793</v>
+        <v>744.2773483635792</v>
       </c>
     </row>
     <row r="2436" spans="1:2">
@@ -19839,7 +19839,7 @@
         <v>2437</v>
       </c>
       <c r="B2437">
-        <v>897.1402714189504</v>
+        <v>897.1402714189503</v>
       </c>
     </row>
     <row r="2438" spans="1:2">
@@ -20055,7 +20055,7 @@
         <v>2464</v>
       </c>
       <c r="B2464">
-        <v>843.8540951695446</v>
+        <v>843.8540951695445</v>
       </c>
     </row>
     <row r="2465" spans="1:2">
@@ -20575,7 +20575,7 @@
         <v>2529</v>
       </c>
       <c r="B2529">
-        <v>578.5075767655626</v>
+        <v>578.5075767655625</v>
       </c>
     </row>
     <row r="2530" spans="1:2">
@@ -20631,7 +20631,7 @@
         <v>2536</v>
       </c>
       <c r="B2536">
-        <v>1036.568818062086</v>
+        <v>1036.568818062085</v>
       </c>
     </row>
     <row r="2537" spans="1:2">
@@ -20783,7 +20783,7 @@
         <v>2555</v>
       </c>
       <c r="B2555">
-        <v>491.2368828729872</v>
+        <v>491.2368828729871</v>
       </c>
     </row>
     <row r="2556" spans="1:2">
@@ -20799,7 +20799,7 @@
         <v>2557</v>
       </c>
       <c r="B2557">
-        <v>526.9768960377382</v>
+        <v>526.9768960377381</v>
       </c>
     </row>
     <row r="2558" spans="1:2">
@@ -20943,7 +20943,7 @@
         <v>2575</v>
       </c>
       <c r="B2575">
-        <v>266.9317396521013</v>
+        <v>266.9317396521012</v>
       </c>
     </row>
     <row r="2576" spans="1:2">
@@ -20951,7 +20951,7 @@
         <v>2576</v>
       </c>
       <c r="B2576">
-        <v>306.5640292813137</v>
+        <v>306.5640292813136</v>
       </c>
     </row>
     <row r="2577" spans="1:2">
@@ -21007,7 +21007,7 @@
         <v>2583</v>
       </c>
       <c r="B2583">
-        <v>476.5159246010278</v>
+        <v>476.5159246010277</v>
       </c>
     </row>
     <row r="2584" spans="1:2">
@@ -21015,7 +21015,7 @@
         <v>2584</v>
       </c>
       <c r="B2584">
-        <v>500.3074315195558</v>
+        <v>500.3074315195557</v>
       </c>
     </row>
     <row r="2585" spans="1:2">
@@ -21359,7 +21359,7 @@
         <v>2627</v>
       </c>
       <c r="B2627">
-        <v>654.5536498774085</v>
+        <v>654.5536498774084</v>
       </c>
     </row>
     <row r="2628" spans="1:2">
@@ -21375,7 +21375,7 @@
         <v>2629</v>
       </c>
       <c r="B2629">
-        <v>700.844220433968</v>
+        <v>700.8442204339678</v>
       </c>
     </row>
     <row r="2630" spans="1:2">
@@ -21903,7 +21903,7 @@
         <v>2695</v>
       </c>
       <c r="B2695">
-        <v>332.172576639542</v>
+        <v>332.1725766395419</v>
       </c>
     </row>
     <row r="2696" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>355.0878011524726</v>
+        <v>355.0878011524725</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -21983,7 +21983,7 @@
         <v>2705</v>
       </c>
       <c r="B2705">
-        <v>324.9835440611792</v>
+        <v>324.9835440611791</v>
       </c>
     </row>
     <row r="2706" spans="1:2">
@@ -22135,7 +22135,7 @@
         <v>2724</v>
       </c>
       <c r="B2724">
-        <v>549.4818210965429</v>
+        <v>549.4818210965428</v>
       </c>
     </row>
     <row r="2725" spans="1:2">
@@ -22183,7 +22183,7 @@
         <v>2730</v>
       </c>
       <c r="B2730">
-        <v>504.0294337105549</v>
+        <v>504.0294337105548</v>
       </c>
     </row>
     <row r="2731" spans="1:2">
@@ -22271,7 +22271,7 @@
         <v>2741</v>
       </c>
       <c r="B2741">
-        <v>396.3404805544436</v>
+        <v>396.3404805544435</v>
       </c>
     </row>
     <row r="2742" spans="1:2">
@@ -22295,7 +22295,7 @@
         <v>2744</v>
       </c>
       <c r="B2744">
-        <v>527.1556693713217</v>
+        <v>527.1556693713216</v>
       </c>
     </row>
     <row r="2745" spans="1:2">
@@ -22303,7 +22303,7 @@
         <v>2745</v>
       </c>
       <c r="B2745">
-        <v>584.744128468276</v>
+        <v>584.7441284682759</v>
       </c>
     </row>
     <row r="2746" spans="1:2">
@@ -22359,7 +22359,7 @@
         <v>2752</v>
       </c>
       <c r="B2752">
-        <v>823.6556391850047</v>
+        <v>823.6556391850046</v>
       </c>
     </row>
     <row r="2753" spans="1:2">
@@ -22519,7 +22519,7 @@
         <v>2772</v>
       </c>
       <c r="B2772">
-        <v>885.5610346814407</v>
+        <v>885.5610346814406</v>
       </c>
     </row>
     <row r="2773" spans="1:2">
@@ -22711,7 +22711,7 @@
         <v>2796</v>
       </c>
       <c r="B2796">
-        <v>738.3221448579808</v>
+        <v>738.3221448579807</v>
       </c>
     </row>
     <row r="2797" spans="1:2">
@@ -22727,7 +22727,7 @@
         <v>2798</v>
       </c>
       <c r="B2798">
-        <v>666.5050868340181</v>
+        <v>666.505086834018</v>
       </c>
     </row>
     <row r="2799" spans="1:2">
@@ -22743,7 +22743,7 @@
         <v>2800</v>
       </c>
       <c r="B2800">
-        <v>632.1219925782691</v>
+        <v>632.121992578269</v>
       </c>
     </row>
     <row r="2801" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>586.7545957934929</v>
+        <v>586.7545957934927</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23263,7 +23263,7 @@
         <v>2865</v>
       </c>
       <c r="B2865">
-        <v>767.4211682866658</v>
+        <v>767.4211682866656</v>
       </c>
     </row>
     <row r="2866" spans="1:2">
@@ -23471,7 +23471,7 @@
         <v>2891</v>
       </c>
       <c r="B2891">
-        <v>867.9064353124812</v>
+        <v>867.9064353124811</v>
       </c>
     </row>
     <row r="2892" spans="1:2">
@@ -23831,7 +23831,7 @@
         <v>2936</v>
       </c>
       <c r="B2936">
-        <v>754.3531306727564</v>
+        <v>754.3531306727563</v>
       </c>
     </row>
     <row r="2937" spans="1:2">
@@ -23863,7 +23863,7 @@
         <v>2940</v>
       </c>
       <c r="B2940">
-        <v>886.0504633160051</v>
+        <v>886.050463316005</v>
       </c>
     </row>
     <row r="2941" spans="1:2">
@@ -23895,7 +23895,7 @@
         <v>2944</v>
       </c>
       <c r="B2944">
-        <v>992.863134066519</v>
+        <v>992.8631340665188</v>
       </c>
     </row>
     <row r="2945" spans="1:2">
@@ -24031,7 +24031,7 @@
         <v>2961</v>
       </c>
       <c r="B2961">
-        <v>704.3259043732647</v>
+        <v>704.3259043732646</v>
       </c>
     </row>
     <row r="2962" spans="1:2">
@@ -24071,7 +24071,7 @@
         <v>2966</v>
       </c>
       <c r="B2966">
-        <v>813.9198192806748</v>
+        <v>813.9198192806747</v>
       </c>
     </row>
     <row r="2967" spans="1:2">
@@ -24095,7 +24095,7 @@
         <v>2969</v>
       </c>
       <c r="B2969">
-        <v>604.3329966924003</v>
+        <v>604.3329966924002</v>
       </c>
     </row>
     <row r="2970" spans="1:2">
@@ -24439,7 +24439,7 @@
         <v>3012</v>
       </c>
       <c r="B3012">
-        <v>7.572428111139573</v>
+        <v>7.572428111139572</v>
       </c>
     </row>
     <row r="3013" spans="1:2">
@@ -24975,7 +24975,7 @@
         <v>3079</v>
       </c>
       <c r="B3079">
-        <v>877.0297367460089</v>
+        <v>877.0297367460088</v>
       </c>
     </row>
     <row r="3080" spans="1:2">
@@ -24991,7 +24991,7 @@
         <v>3081</v>
       </c>
       <c r="B3081">
-        <v>879.576524071976</v>
+        <v>879.5765240719759</v>
       </c>
     </row>
     <row r="3082" spans="1:2">
@@ -24999,7 +24999,7 @@
         <v>3082</v>
       </c>
       <c r="B3082">
-        <v>858.5897069934371</v>
+        <v>858.5897069934369</v>
       </c>
     </row>
     <row r="3083" spans="1:2">
@@ -25047,7 +25047,7 @@
         <v>3088</v>
       </c>
       <c r="B3088">
-        <v>1133.765828034121</v>
+        <v>1133.76582803412</v>
       </c>
     </row>
     <row r="3089" spans="1:2">
@@ -25207,7 +25207,7 @@
         <v>3108</v>
       </c>
       <c r="B3108">
-        <v>1165.76918545594</v>
+        <v>1165.769185455939</v>
       </c>
     </row>
     <row r="3109" spans="1:2">
@@ -25343,7 +25343,7 @@
         <v>3125</v>
       </c>
       <c r="B3125">
-        <v>537.858623703234</v>
+        <v>537.8586237032339</v>
       </c>
     </row>
     <row r="3126" spans="1:2">
@@ -25375,7 +25375,7 @@
         <v>3129</v>
       </c>
       <c r="B3129">
-        <v>899.1507387441673</v>
+        <v>899.1507387441671</v>
       </c>
     </row>
     <row r="3130" spans="1:2">
@@ -25383,7 +25383,7 @@
         <v>3130</v>
       </c>
       <c r="B3130">
-        <v>988.4260385411862</v>
+        <v>988.426038541186</v>
       </c>
     </row>
     <row r="3131" spans="1:2">
@@ -25423,7 +25423,7 @@
         <v>3135</v>
       </c>
       <c r="B3135">
-        <v>1238.075672114467</v>
+        <v>1238.075672114466</v>
       </c>
     </row>
     <row r="3136" spans="1:2">
@@ -25623,7 +25623,7 @@
         <v>3160</v>
       </c>
       <c r="B3160">
-        <v>18.27884068130811</v>
+        <v>18.2788406813081</v>
       </c>
     </row>
     <row r="3161" spans="1:2">
@@ -25751,7 +25751,7 @@
         <v>3176</v>
       </c>
       <c r="B3176">
-        <v>19.81476738072449</v>
+        <v>19.81476738072448</v>
       </c>
     </row>
     <row r="3177" spans="1:2">
@@ -25807,7 +25807,7 @@
         <v>3183</v>
       </c>
       <c r="B3183">
-        <v>37.37036735282413</v>
+        <v>37.37036735282412</v>
       </c>
     </row>
     <row r="3184" spans="1:2">
@@ -25927,7 +25927,7 @@
         <v>3198</v>
       </c>
       <c r="B3198">
-        <v>702.9279555188501</v>
+        <v>702.92795551885</v>
       </c>
     </row>
     <row r="3199" spans="1:2">
@@ -25991,7 +25991,7 @@
         <v>3206</v>
       </c>
       <c r="B3206">
-        <v>908.0630290298589</v>
+        <v>908.0630290298586</v>
       </c>
     </row>
     <row r="3207" spans="1:2">
@@ -26215,7 +26215,7 @@
         <v>3234</v>
       </c>
       <c r="B3234">
-        <v>1003.132343261213</v>
+        <v>1003.132343261212</v>
       </c>
     </row>
     <row r="3235" spans="1:2">
@@ -26303,7 +26303,7 @@
         <v>3245</v>
       </c>
       <c r="B3245">
-        <v>539.2565725576486</v>
+        <v>539.2565725576485</v>
       </c>
     </row>
     <row r="3246" spans="1:2">
@@ -26319,7 +26319,7 @@
         <v>3247</v>
       </c>
       <c r="B3247">
-        <v>723.3491454927727</v>
+        <v>723.3491454927725</v>
       </c>
     </row>
     <row r="3248" spans="1:2">
@@ -26495,7 +26495,7 @@
         <v>3269</v>
       </c>
       <c r="B3269">
-        <v>987.6083703433212</v>
+        <v>987.608370343321</v>
       </c>
     </row>
     <row r="3270" spans="1:2">
@@ -26735,7 +26735,7 @@
         <v>3299</v>
       </c>
       <c r="B3299">
-        <v>597.1586176659706</v>
+        <v>597.1586176659705</v>
       </c>
     </row>
     <row r="3300" spans="1:2">
@@ -26767,7 +26767,7 @@
         <v>3303</v>
       </c>
       <c r="B3303">
-        <v>624.5754133327395</v>
+        <v>624.5754133327393</v>
       </c>
     </row>
     <row r="3304" spans="1:2">
@@ -27271,7 +27271,7 @@
         <v>3366</v>
       </c>
       <c r="B3366">
-        <v>289.6804998150722</v>
+        <v>289.6804998150721</v>
       </c>
     </row>
     <row r="3367" spans="1:2">
@@ -27295,7 +27295,7 @@
         <v>3369</v>
       </c>
       <c r="B3369">
-        <v>569.8737039665994</v>
+        <v>569.8737039665992</v>
       </c>
     </row>
     <row r="3370" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>816.7039941479576</v>
+        <v>816.7039941479575</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -27511,7 +27511,7 @@
         <v>3396</v>
       </c>
       <c r="B3396">
-        <v>772.6173178021314</v>
+        <v>772.6173178021313</v>
       </c>
     </row>
     <row r="3397" spans="1:2">
@@ -27519,7 +27519,7 @@
         <v>3397</v>
       </c>
       <c r="B3397">
-        <v>808.8907202572461</v>
+        <v>808.890720257246</v>
       </c>
     </row>
     <row r="3398" spans="1:2">
@@ -27655,7 +27655,7 @@
         <v>3414</v>
       </c>
       <c r="B3414">
-        <v>421.7849081310216</v>
+        <v>421.7849081310215</v>
       </c>
     </row>
     <row r="3415" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>963.8373783974994</v>
+        <v>963.8373783974992</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -27847,7 +27847,7 @@
         <v>3438</v>
       </c>
       <c r="B3438">
-        <v>624.4845613107544</v>
+        <v>624.4845613107543</v>
       </c>
     </row>
     <row r="3439" spans="1:2">
@@ -28455,7 +28455,7 @@
         <v>3514</v>
       </c>
       <c r="B3514">
-        <v>47.70610367329379</v>
+        <v>47.70610367329378</v>
       </c>
     </row>
     <row r="3515" spans="1:2">
@@ -28471,7 +28471,7 @@
         <v>3516</v>
       </c>
       <c r="B3516">
-        <v>50.18020938167287</v>
+        <v>50.18020938167286</v>
       </c>
     </row>
     <row r="3517" spans="1:2">
@@ -28495,7 +28495,7 @@
         <v>3519</v>
       </c>
       <c r="B3519">
-        <v>52.25104934085393</v>
+        <v>52.25104934085392</v>
       </c>
     </row>
     <row r="3520" spans="1:2">
@@ -28519,7 +28519,7 @@
         <v>3522</v>
       </c>
       <c r="B3522">
-        <v>2.533613782779263</v>
+        <v>2.533613782779262</v>
       </c>
     </row>
     <row r="3523" spans="1:2">
@@ -28799,7 +28799,7 @@
         <v>3557</v>
       </c>
       <c r="B3557">
-        <v>1944.104319222354</v>
+        <v>1944.104319222353</v>
       </c>
     </row>
     <row r="3558" spans="1:2">
@@ -28823,7 +28823,7 @@
         <v>3560</v>
       </c>
       <c r="B3560">
-        <v>1996.024784431598</v>
+        <v>1996.024784431597</v>
       </c>
     </row>
     <row r="3561" spans="1:2">
@@ -28855,7 +28855,7 @@
         <v>3564</v>
       </c>
       <c r="B3564">
-        <v>2191.233776319978</v>
+        <v>2191.233776319977</v>
       </c>
     </row>
     <row r="3565" spans="1:2">
@@ -29247,7 +29247,7 @@
         <v>3613</v>
       </c>
       <c r="B3613">
-        <v>2312.110691759019</v>
+        <v>2312.110691759018</v>
       </c>
     </row>
     <row r="3614" spans="1:2">
@@ -29391,7 +29391,7 @@
         <v>3631</v>
       </c>
       <c r="B3631">
-        <v>1580.447120899424</v>
+        <v>1580.447120899423</v>
       </c>
     </row>
     <row r="3632" spans="1:2">
@@ -29799,7 +29799,7 @@
         <v>3682</v>
       </c>
       <c r="B3682">
-        <v>7.67207226428443</v>
+        <v>7.672072264284429</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -30215,7 +30215,7 @@
         <v>3734</v>
       </c>
       <c r="B3734">
-        <v>1840.149120405892</v>
+        <v>1840.149120405891</v>
       </c>
     </row>
     <row r="3735" spans="1:2">
@@ -30247,7 +30247,7 @@
         <v>3738</v>
       </c>
       <c r="B3738">
-        <v>1291.300303445754</v>
+        <v>1291.300303445753</v>
       </c>
     </row>
     <row r="3739" spans="1:2">
@@ -30783,7 +30783,7 @@
         <v>3805</v>
       </c>
       <c r="B3805">
-        <v>1807.788333545322</v>
+        <v>1807.788333545321</v>
       </c>
     </row>
     <row r="3806" spans="1:2">
@@ -31015,7 +31015,7 @@
         <v>3834</v>
       </c>
       <c r="B3834">
-        <v>7.584795708971082</v>
+        <v>7.584795708971081</v>
       </c>
     </row>
     <row r="3835" spans="1:2">
@@ -31135,7 +31135,7 @@
         <v>3849</v>
       </c>
       <c r="B3849">
-        <v>9.093642644415151</v>
+        <v>9.09364264441515</v>
       </c>
     </row>
     <row r="3850" spans="1:2">
@@ -31351,7 +31351,7 @@
         <v>3876</v>
       </c>
       <c r="B3876">
-        <v>1406.269141202213</v>
+        <v>1406.269141202212</v>
       </c>
     </row>
     <row r="3877" spans="1:2">
@@ -31575,7 +31575,7 @@
         <v>3904</v>
       </c>
       <c r="B3904">
-        <v>1900.058496979317</v>
+        <v>1900.058496979316</v>
       </c>
     </row>
     <row r="3905" spans="1:2">
@@ -31591,7 +31591,7 @@
         <v>3906</v>
       </c>
       <c r="B3906">
-        <v>1739.614939823724</v>
+        <v>1739.614939823723</v>
       </c>
     </row>
     <row r="3907" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>1857.838858992387</v>
+        <v>1857.838858992386</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -31751,7 +31751,7 @@
         <v>3926</v>
       </c>
       <c r="B3926">
-        <v>2380.50848997492</v>
+        <v>2380.508489974919</v>
       </c>
     </row>
     <row r="3927" spans="1:2">
@@ -31767,7 +31767,7 @@
         <v>3928</v>
       </c>
       <c r="B3928">
-        <v>2309.79630976671</v>
+        <v>2309.796309766709</v>
       </c>
     </row>
     <row r="3929" spans="1:2">
@@ -31951,7 +31951,7 @@
         <v>3951</v>
       </c>
       <c r="B3951">
-        <v>2162.453965866603</v>
+        <v>2162.453965866602</v>
       </c>
     </row>
     <row r="3952" spans="1:2">
@@ -32103,7 +32103,7 @@
         <v>3970</v>
       </c>
       <c r="B3970">
-        <v>2704.198711542486</v>
+        <v>2704.198711542485</v>
       </c>
     </row>
     <row r="3971" spans="1:2">
@@ -32175,7 +32175,7 @@
         <v>3979</v>
       </c>
       <c r="B3979">
-        <v>31.81579195707565</v>
+        <v>31.81579195707564</v>
       </c>
     </row>
     <row r="3980" spans="1:2">
@@ -32335,7 +32335,7 @@
         <v>3999</v>
       </c>
       <c r="B3999">
-        <v>27.48722063735918</v>
+        <v>27.48722063735917</v>
       </c>
     </row>
     <row r="4000" spans="1:2">
@@ -32367,7 +32367,7 @@
         <v>4003</v>
       </c>
       <c r="B4003">
-        <v>3.98482829847058</v>
+        <v>3.984828298470579</v>
       </c>
     </row>
     <row r="4004" spans="1:2">
@@ -32495,7 +32495,7 @@
         <v>4019</v>
       </c>
       <c r="B4019">
-        <v>60.51829027045182</v>
+        <v>60.51829027045181</v>
       </c>
     </row>
     <row r="4020" spans="1:2">
@@ -32647,7 +32647,7 @@
         <v>4038</v>
       </c>
       <c r="B4038">
-        <v>2102.40664075528</v>
+        <v>2102.406640755279</v>
       </c>
     </row>
     <row r="4039" spans="1:2">
@@ -32727,7 +32727,7 @@
         <v>4048</v>
       </c>
       <c r="B4048">
-        <v>2515.179614447465</v>
+        <v>2515.179614447464</v>
       </c>
     </row>
     <row r="4049" spans="1:2">
@@ -32831,7 +32831,7 @@
         <v>4061</v>
       </c>
       <c r="B4061">
-        <v>2084.930814719904</v>
+        <v>2084.930814719903</v>
       </c>
     </row>
     <row r="4062" spans="1:2">
@@ -32919,7 +32919,7 @@
         <v>4072</v>
       </c>
       <c r="B4072">
-        <v>2192.200090148652</v>
+        <v>2192.200090148651</v>
       </c>
     </row>
     <row r="4073" spans="1:2">
@@ -33023,7 +33023,7 @@
         <v>4085</v>
       </c>
       <c r="B4085">
-        <v>1800.112656507262</v>
+        <v>1800.112656507261</v>
       </c>
     </row>
     <row r="4086" spans="1:2">
@@ -33111,7 +33111,7 @@
         <v>4096</v>
       </c>
       <c r="B4096">
-        <v>2243.823381324693</v>
+        <v>2243.823381324692</v>
       </c>
     </row>
     <row r="4097" spans="1:2">
@@ -33295,7 +33295,7 @@
         <v>4119</v>
       </c>
       <c r="B4119">
-        <v>2425.743418650221</v>
+        <v>2425.74341865022</v>
       </c>
     </row>
     <row r="4120" spans="1:2">
@@ -33631,7 +33631,7 @@
         <v>4161</v>
       </c>
       <c r="B4161">
-        <v>29.03630622641145</v>
+        <v>29.03630622641144</v>
       </c>
     </row>
     <row r="4162" spans="1:2">
@@ -33687,7 +33687,7 @@
         <v>4168</v>
       </c>
       <c r="B4168">
-        <v>45.63995285073131</v>
+        <v>45.6399528507313</v>
       </c>
     </row>
     <row r="4169" spans="1:2">
@@ -33855,7 +33855,7 @@
         <v>4189</v>
       </c>
       <c r="B4189">
-        <v>78.93194362954415</v>
+        <v>78.93194362954414</v>
       </c>
     </row>
     <row r="4190" spans="1:2">
@@ -33999,7 +33999,7 @@
         <v>4207</v>
       </c>
       <c r="B4207">
-        <v>2204.357262974402</v>
+        <v>2204.357262974401</v>
       </c>
     </row>
     <row r="4208" spans="1:2">
@@ -34255,7 +34255,7 @@
         <v>4239</v>
       </c>
       <c r="B4239">
-        <v>2212.571458046002</v>
+        <v>2212.571458046001</v>
       </c>
     </row>
     <row r="4240" spans="1:2">
@@ -34631,7 +34631,7 @@
         <v>4286</v>
       </c>
       <c r="B4286">
-        <v>2014.919660436172</v>
+        <v>2014.919660436171</v>
       </c>
     </row>
     <row r="4287" spans="1:2">
@@ -34815,7 +34815,7 @@
         <v>4309</v>
       </c>
       <c r="B4309">
-        <v>2369.494294199948</v>
+        <v>2369.494294199947</v>
       </c>
     </row>
     <row r="4310" spans="1:2">
@@ -34999,7 +34999,7 @@
         <v>4332</v>
       </c>
       <c r="B4332">
-        <v>31.88583593531571</v>
+        <v>31.8858359353157</v>
       </c>
     </row>
     <row r="4333" spans="1:2">
@@ -35183,7 +35183,7 @@
         <v>4355</v>
       </c>
       <c r="B4355">
-        <v>44.01458087031549</v>
+        <v>44.01458087031548</v>
       </c>
     </row>
     <row r="4356" spans="1:2">
@@ -35567,7 +35567,7 @@
         <v>4403</v>
       </c>
       <c r="B4403">
-        <v>2395.922561253313</v>
+        <v>2395.922561253312</v>
       </c>
     </row>
     <row r="4404" spans="1:2">
@@ -36143,7 +36143,7 @@
         <v>4475</v>
       </c>
       <c r="B4475">
-        <v>2331.184634168215</v>
+        <v>2331.184634168214</v>
       </c>
     </row>
     <row r="4476" spans="1:2">
@@ -36167,7 +36167,7 @@
         <v>4478</v>
       </c>
       <c r="B4478">
-        <v>2285.558162585262</v>
+        <v>2285.558162585261</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36199,7 +36199,7 @@
         <v>4482</v>
       </c>
       <c r="B4482">
-        <v>2111.31482804643</v>
+        <v>2111.314828046429</v>
       </c>
     </row>
     <row r="4483" spans="1:2">
@@ -36367,7 +36367,7 @@
         <v>4503</v>
       </c>
       <c r="B4503">
-        <v>57.48441887822958</v>
+        <v>57.48441887822957</v>
       </c>
     </row>
     <row r="4504" spans="1:2">
@@ -36487,7 +36487,7 @@
         <v>4518</v>
       </c>
       <c r="B4518">
-        <v>37.61508167010635</v>
+        <v>37.61508167010634</v>
       </c>
     </row>
     <row r="4519" spans="1:2">
@@ -36967,7 +36967,7 @@
         <v>4578</v>
       </c>
       <c r="B4578">
-        <v>1742.870021235928</v>
+        <v>1742.870021235927</v>
       </c>
     </row>
     <row r="4579" spans="1:2">
@@ -37535,7 +37535,7 @@
         <v>4649</v>
       </c>
       <c r="B4649">
-        <v>2113.109917465335</v>
+        <v>2113.109917465334</v>
       </c>
     </row>
     <row r="4650" spans="1:2">
@@ -37559,7 +37559,7 @@
         <v>4652</v>
       </c>
       <c r="B4652">
-        <v>7.736108286231934</v>
+        <v>7.736108286231933</v>
       </c>
     </row>
     <row r="4653" spans="1:2">
@@ -37671,7 +37671,7 @@
         <v>4666</v>
       </c>
       <c r="B4666">
-        <v>27.43511260668519</v>
+        <v>27.43511260668518</v>
       </c>
     </row>
     <row r="4667" spans="1:2">
@@ -37695,7 +37695,7 @@
         <v>4669</v>
       </c>
       <c r="B4669">
-        <v>24.5451097873418</v>
+        <v>24.54510978734179</v>
       </c>
     </row>
     <row r="4670" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>29.98146032609429</v>
+        <v>29.98146032609428</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -37727,7 +37727,7 @@
         <v>4673</v>
       </c>
       <c r="B4673">
-        <v>43.59929920853236</v>
+        <v>43.59929920853235</v>
       </c>
     </row>
     <row r="4674" spans="1:2">
@@ -37855,7 +37855,7 @@
         <v>4689</v>
       </c>
       <c r="B4689">
-        <v>49.47947652823359</v>
+        <v>49.47947652823358</v>
       </c>
     </row>
     <row r="4690" spans="1:2">
@@ -37863,7 +37863,7 @@
         <v>4690</v>
       </c>
       <c r="B4690">
-        <v>47.98627958625404</v>
+        <v>47.98627958625403</v>
       </c>
     </row>
     <row r="4691" spans="1:2">
@@ -37879,7 +37879,7 @@
         <v>4692</v>
       </c>
       <c r="B4692">
-        <v>52.40930770173106</v>
+        <v>52.40930770173105</v>
       </c>
     </row>
     <row r="4693" spans="1:2">
@@ -37903,7 +37903,7 @@
         <v>4695</v>
       </c>
       <c r="B4695">
-        <v>59.82048812739916</v>
+        <v>59.82048812739915</v>
       </c>
     </row>
     <row r="4696" spans="1:2">
@@ -37919,7 +37919,7 @@
         <v>4697</v>
       </c>
       <c r="B4697">
-        <v>35.39067248666674</v>
+        <v>35.39067248666673</v>
       </c>
     </row>
     <row r="4698" spans="1:2">
@@ -38455,7 +38455,7 @@
         <v>4764</v>
       </c>
       <c r="B4764">
-        <v>2454.124418034186</v>
+        <v>2454.124418034185</v>
       </c>
     </row>
     <row r="4765" spans="1:2">
@@ -38463,7 +38463,7 @@
         <v>4765</v>
       </c>
       <c r="B4765">
-        <v>2610.567203826805</v>
+        <v>2610.567203826804</v>
       </c>
     </row>
     <row r="4766" spans="1:2">
@@ -38479,7 +38479,7 @@
         <v>4767</v>
       </c>
       <c r="B4767">
-        <v>2398.151073431294</v>
+        <v>2398.151073431293</v>
       </c>
     </row>
     <row r="4768" spans="1:2">
@@ -38495,7 +38495,7 @@
         <v>4769</v>
       </c>
       <c r="B4769">
-        <v>2467.190697221863</v>
+        <v>2467.190697221862</v>
       </c>
     </row>
     <row r="4770" spans="1:2">
@@ -38815,7 +38815,7 @@
         <v>4809</v>
       </c>
       <c r="B4809">
-        <v>2560.981635582576</v>
+        <v>2560.981635582575</v>
       </c>
     </row>
     <row r="4810" spans="1:2">
@@ -39135,7 +39135,7 @@
         <v>4849</v>
       </c>
       <c r="B4849">
-        <v>4.952548868130342</v>
+        <v>4.952548868130341</v>
       </c>
     </row>
     <row r="4850" spans="1:2">
@@ -39183,7 +39183,7 @@
         <v>4855</v>
       </c>
       <c r="B4855">
-        <v>82.97691010514804</v>
+        <v>82.97691010514802</v>
       </c>
     </row>
     <row r="4856" spans="1:2">
@@ -39239,7 +39239,7 @@
         <v>4862</v>
       </c>
       <c r="B4862">
-        <v>80.12884575143708</v>
+        <v>80.12884575143707</v>
       </c>
     </row>
     <row r="4863" spans="1:2">
@@ -39279,7 +39279,7 @@
         <v>4867</v>
       </c>
       <c r="B4867">
-        <v>27.71634357538462</v>
+        <v>27.71634357538461</v>
       </c>
     </row>
     <row r="4868" spans="1:2">
@@ -39383,7 +39383,7 @@
         <v>4880</v>
       </c>
       <c r="B4880">
-        <v>2732.787205221823</v>
+        <v>2732.787205221822</v>
       </c>
     </row>
     <row r="4881" spans="1:2">
@@ -39471,7 +39471,7 @@
         <v>4891</v>
       </c>
       <c r="B4891">
-        <v>52.50572807345064</v>
+        <v>52.50572807345063</v>
       </c>
     </row>
     <row r="4892" spans="1:2">
@@ -39847,7 +39847,7 @@
         <v>4938</v>
       </c>
       <c r="B4938">
-        <v>2062.528845516981</v>
+        <v>2062.52884551698</v>
       </c>
     </row>
     <row r="4939" spans="1:2">
@@ -40039,7 +40039,7 @@
         <v>4962</v>
       </c>
       <c r="B4962">
-        <v>1873.913805462962</v>
+        <v>1873.913805462961</v>
       </c>
     </row>
     <row r="4963" spans="1:2">
@@ -40135,7 +40135,7 @@
         <v>4974</v>
       </c>
       <c r="B4974">
-        <v>1592.266675888636</v>
+        <v>1592.266675888635</v>
       </c>
     </row>
     <row r="4975" spans="1:2">
@@ -40175,7 +40175,7 @@
         <v>4979</v>
       </c>
       <c r="B4979">
-        <v>1701.579242598931</v>
+        <v>1701.57924259893</v>
       </c>
     </row>
     <row r="4980" spans="1:2">
@@ -40367,7 +40367,7 @@
         <v>5003</v>
       </c>
       <c r="B5003">
-        <v>21.07772771473169</v>
+        <v>21.07772771473168</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40391,7 +40391,7 @@
         <v>5006</v>
       </c>
       <c r="B5006">
-        <v>21.77256984029388</v>
+        <v>21.77256984029387</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40407,7 +40407,7 @@
         <v>5008</v>
       </c>
       <c r="B5008">
-        <v>24.1118921779926</v>
+        <v>24.11189217799259</v>
       </c>
     </row>
     <row r="5009" spans="1:2">
@@ -40519,7 +40519,7 @@
         <v>5022</v>
       </c>
       <c r="B5022">
-        <v>7.478323000625414</v>
+        <v>7.478323000625413</v>
       </c>
     </row>
     <row r="5023" spans="1:2">
@@ -40783,7 +40783,7 @@
         <v>5055</v>
       </c>
       <c r="B5055">
-        <v>2032.43241342242</v>
+        <v>2032.432413422419</v>
       </c>
     </row>
     <row r="5056" spans="1:2">
@@ -40935,7 +40935,7 @@
         <v>5074</v>
       </c>
       <c r="B5074">
-        <v>2104.695525567225</v>
+        <v>2104.695525567224</v>
       </c>
     </row>
     <row r="5075" spans="1:2">
@@ -41199,7 +41199,7 @@
         <v>5107</v>
       </c>
       <c r="B5107">
-        <v>9.936661487124512</v>
+        <v>9.93666148712451</v>
       </c>
     </row>
     <row r="5108" spans="1:2">
@@ -41279,7 +41279,7 @@
         <v>5117</v>
       </c>
       <c r="B5117">
-        <v>1793.477528191969</v>
+        <v>1793.477528191968</v>
       </c>
     </row>
     <row r="5118" spans="1:2">
@@ -41391,7 +41391,7 @@
         <v>5131</v>
       </c>
       <c r="B5131">
-        <v>3.054855278590399</v>
+        <v>3.054855278590398</v>
       </c>
     </row>
     <row r="5132" spans="1:2">
@@ -41487,7 +41487,7 @@
         <v>5143</v>
       </c>
       <c r="B5143">
-        <v>1763.613589352378</v>
+        <v>1763.613589352377</v>
       </c>
     </row>
     <row r="5144" spans="1:2">
@@ -41495,7 +41495,7 @@
         <v>5144</v>
       </c>
       <c r="B5144">
-        <v>1883.230533782006</v>
+        <v>1883.230533782005</v>
       </c>
     </row>
     <row r="5145" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>1975.684276914619</v>
+        <v>1975.684276914618</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41735,7 +41735,7 @@
         <v>5174</v>
       </c>
       <c r="B5174">
-        <v>52.31259425897282</v>
+        <v>52.31259425897281</v>
       </c>
     </row>
     <row r="5175" spans="1:2">
@@ -41759,7 +41759,7 @@
         <v>5177</v>
       </c>
       <c r="B5177">
-        <v>62.55161713668424</v>
+        <v>62.55161713668423</v>
       </c>
     </row>
     <row r="5178" spans="1:2">
@@ -41767,7 +41767,7 @@
         <v>5178</v>
       </c>
       <c r="B5178">
-        <v>49.21190266993578</v>
+        <v>49.21190266993577</v>
       </c>
     </row>
     <row r="5179" spans="1:2">
@@ -41887,7 +41887,7 @@
         <v>5193</v>
       </c>
       <c r="B5193">
-        <v>58.25343728367695</v>
+        <v>58.25343728367694</v>
       </c>
     </row>
     <row r="5194" spans="1:2">
@@ -41903,7 +41903,7 @@
         <v>5195</v>
       </c>
       <c r="B5195">
-        <v>61.92503125602628</v>
+        <v>61.92503125602627</v>
       </c>
     </row>
     <row r="5196" spans="1:2">
@@ -41935,7 +41935,7 @@
         <v>5199</v>
       </c>
       <c r="B5199">
-        <v>42.62601028913803</v>
+        <v>42.62601028913802</v>
       </c>
     </row>
     <row r="5200" spans="1:2">
@@ -42439,7 +42439,7 @@
         <v>5262</v>
       </c>
       <c r="B5262">
-        <v>963.673258615849</v>
+        <v>963.6732586158488</v>
       </c>
     </row>
     <row r="5263" spans="1:2">
@@ -42519,7 +42519,7 @@
         <v>5272</v>
       </c>
       <c r="B5272">
-        <v>1849.481703868128</v>
+        <v>1849.481703868127</v>
       </c>
     </row>
     <row r="5273" spans="1:2">
@@ -42823,7 +42823,7 @@
         <v>5310</v>
       </c>
       <c r="B5310">
-        <v>1296.84227678684</v>
+        <v>1296.842276786839</v>
       </c>
     </row>
     <row r="5311" spans="1:2">
@@ -42855,7 +42855,7 @@
         <v>5314</v>
       </c>
       <c r="B5314">
-        <v>1927.791985210464</v>
+        <v>1927.791985210463</v>
       </c>
     </row>
     <row r="5315" spans="1:2">
@@ -43111,7 +43111,7 @@
         <v>5346</v>
       </c>
       <c r="B5346">
-        <v>9.379035221863569</v>
+        <v>9.379035221863568</v>
       </c>
     </row>
     <row r="5347" spans="1:2">
@@ -43511,7 +43511,7 @@
         <v>5396</v>
       </c>
       <c r="B5396">
-        <v>7.125846462427415</v>
+        <v>7.125846462427414</v>
       </c>
     </row>
     <row r="5397" spans="1:2">
@@ -44015,7 +44015,7 @@
         <v>5459</v>
       </c>
       <c r="B5459">
-        <v>1557.942195840619</v>
+        <v>1557.942195840618</v>
       </c>
     </row>
     <row r="5460" spans="1:2">
@@ -44071,7 +44071,7 @@
         <v>5466</v>
       </c>
       <c r="B5466">
-        <v>1168.535776060903</v>
+        <v>1168.535776060902</v>
       </c>
     </row>
     <row r="5467" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>2199.948009197742</v>
+        <v>2199.948009197741</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -44799,7 +44799,7 @@
         <v>5557</v>
       </c>
       <c r="B5557">
-        <v>2348.545576356436</v>
+        <v>2348.545576356435</v>
       </c>
     </row>
     <row r="5558" spans="1:2">
@@ -44967,7 +44967,7 @@
         <v>5578</v>
       </c>
       <c r="B5578">
-        <v>1928.773773189979</v>
+        <v>1928.773773189978</v>
       </c>
     </row>
     <row r="5579" spans="1:2">
@@ -44991,7 +44991,7 @@
         <v>5581</v>
       </c>
       <c r="B5581">
-        <v>2268.872338841702</v>
+        <v>2268.872338841701</v>
       </c>
     </row>
     <row r="5582" spans="1:2">
@@ -45367,7 +45367,7 @@
         <v>5628</v>
       </c>
       <c r="B5628">
-        <v>1432.261611621088</v>
+        <v>1432.261611621087</v>
       </c>
     </row>
     <row r="5629" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>1526.927865252971</v>
+        <v>1526.92786525297</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45559,7 +45559,7 @@
         <v>5652</v>
       </c>
       <c r="B5652">
-        <v>1538.33070253231</v>
+        <v>1538.330702532309</v>
       </c>
     </row>
     <row r="5653" spans="1:2">
@@ -45575,7 +45575,7 @@
         <v>5654</v>
       </c>
       <c r="B5654">
-        <v>1702.776584327382</v>
+        <v>1702.776584327381</v>
       </c>
     </row>
     <row r="5655" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>7.429028451922576</v>
+        <v>7.429028451922575</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45799,7 +45799,7 @@
         <v>5682</v>
       </c>
       <c r="B5682">
-        <v>6.358088262446288</v>
+        <v>6.358088262446287</v>
       </c>
     </row>
     <row r="5683" spans="1:2">
@@ -45951,7 +45951,7 @@
         <v>5701</v>
       </c>
       <c r="B5701">
-        <v>68.75593102514492</v>
+        <v>68.7559310251449</v>
       </c>
     </row>
     <row r="5702" spans="1:2">
@@ -46079,7 +46079,7 @@
         <v>5717</v>
       </c>
       <c r="B5717">
-        <v>2072.721475249272</v>
+        <v>2072.721475249271</v>
       </c>
     </row>
     <row r="5718" spans="1:2">
@@ -46503,7 +46503,7 @@
         <v>5770</v>
       </c>
       <c r="B5770">
-        <v>2099.26582774105</v>
+        <v>2099.265827741049</v>
       </c>
     </row>
     <row r="5771" spans="1:2">
@@ -46519,7 +46519,7 @@
         <v>5772</v>
       </c>
       <c r="B5772">
-        <v>2064.394330599372</v>
+        <v>2064.394330599371</v>
       </c>
     </row>
     <row r="5773" spans="1:2">
@@ -46663,7 +46663,7 @@
         <v>5790</v>
       </c>
       <c r="B5790">
-        <v>887.8528502037724</v>
+        <v>887.8528502037723</v>
       </c>
     </row>
     <row r="5791" spans="1:2">
@@ -46711,7 +46711,7 @@
         <v>5796</v>
       </c>
       <c r="B5796">
-        <v>1684.645451449559</v>
+        <v>1684.645451449558</v>
       </c>
     </row>
     <row r="5797" spans="1:2">
@@ -47135,7 +47135,7 @@
         <v>5849</v>
       </c>
       <c r="B5849">
-        <v>42.77401116366201</v>
+        <v>42.774011163662</v>
       </c>
     </row>
     <row r="5850" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>70.09116267728601</v>
+        <v>70.09116267728599</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47295,7 +47295,7 @@
         <v>5869</v>
       </c>
       <c r="B5869">
-        <v>79.59633567418942</v>
+        <v>79.5963356741894</v>
       </c>
     </row>
     <row r="5870" spans="1:2">
@@ -47663,7 +47663,7 @@
         <v>5915</v>
       </c>
       <c r="B5915">
-        <v>1374.092871867584</v>
+        <v>1374.092871867583</v>
       </c>
     </row>
     <row r="5916" spans="1:2">
@@ -48447,7 +48447,7 @@
         <v>6013</v>
       </c>
       <c r="B6013">
-        <v>18.23068910965605</v>
+        <v>18.23068910965604</v>
       </c>
     </row>
     <row r="6014" spans="1:2">
@@ -48455,7 +48455,7 @@
         <v>6014</v>
       </c>
       <c r="B6014">
-        <v>8.350355876162247</v>
+        <v>8.350355876162245</v>
       </c>
     </row>
     <row r="6015" spans="1:2">
@@ -48647,7 +48647,7 @@
         <v>6038</v>
       </c>
       <c r="B6038">
-        <v>34.76174203769949</v>
+        <v>34.76174203769948</v>
       </c>
     </row>
     <row r="6039" spans="1:2">
@@ -49015,7 +49015,7 @@
         <v>6084</v>
       </c>
       <c r="B6084">
-        <v>1891.949397182181</v>
+        <v>1891.94939718218</v>
       </c>
     </row>
     <row r="6085" spans="1:2">
@@ -49407,7 +49407,7 @@
         <v>6133</v>
       </c>
       <c r="B6133">
-        <v>1590.703112590274</v>
+        <v>1590.703112590273</v>
       </c>
     </row>
     <row r="6134" spans="1:2">
@@ -49543,7 +49543,7 @@
         <v>6150</v>
       </c>
       <c r="B6150">
-        <v>991.8959996389366</v>
+        <v>991.8959996389364</v>
       </c>
     </row>
     <row r="6151" spans="1:2">
@@ -49799,7 +49799,7 @@
         <v>6182</v>
       </c>
       <c r="B6182">
-        <v>9.111256213838701</v>
+        <v>9.111256213838695</v>
       </c>
     </row>
     <row r="6183" spans="1:2">
@@ -49823,7 +49823,7 @@
         <v>6185</v>
       </c>
       <c r="B6185">
-        <v>9.140768467431895</v>
+        <v>9.140768467431894</v>
       </c>
     </row>
     <row r="6186" spans="1:2">
@@ -49975,7 +49975,7 @@
         <v>6204</v>
       </c>
       <c r="B6204">
-        <v>42.54717417973813</v>
+        <v>42.54717417973812</v>
       </c>
     </row>
     <row r="6205" spans="1:2">
@@ -50111,7 +50111,7 @@
         <v>6221</v>
       </c>
       <c r="B6221">
-        <v>1530.671935693181</v>
+        <v>1530.67193569318</v>
       </c>
     </row>
     <row r="6222" spans="1:2">
@@ -50143,7 +50143,7 @@
         <v>6225</v>
       </c>
       <c r="B6225">
-        <v>1715.271521525189</v>
+        <v>1715.271521525188</v>
       </c>
     </row>
     <row r="6226" spans="1:2">
@@ -50383,7 +50383,7 @@
         <v>6255</v>
       </c>
       <c r="B6255">
-        <v>1901.929345261716</v>
+        <v>1901.929345261715</v>
       </c>
     </row>
     <row r="6256" spans="1:2">
@@ -50511,7 +50511,7 @@
         <v>6271</v>
       </c>
       <c r="B6271">
-        <v>940.1718920255958</v>
+        <v>940.1718920255956</v>
       </c>
     </row>
     <row r="6272" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>1927.456272335677</v>
+        <v>1927.456272335676</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>1979.56957828836</v>
+        <v>1979.569578288359</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -50919,7 +50919,7 @@
         <v>6322</v>
       </c>
       <c r="B6322">
-        <v>816.4343687923891</v>
+        <v>816.434368792389</v>
       </c>
     </row>
     <row r="6323" spans="1:2">
@@ -51455,7 +51455,7 @@
         <v>6389</v>
       </c>
       <c r="B6389">
-        <v>640.6796669071804</v>
+        <v>640.6796669071803</v>
       </c>
     </row>
     <row r="6390" spans="1:2">
@@ -51487,7 +51487,7 @@
         <v>6393</v>
       </c>
       <c r="B6393">
-        <v>585.4299146987436</v>
+        <v>585.4299146987435</v>
       </c>
     </row>
     <row r="6394" spans="1:2">
@@ -51855,7 +51855,7 @@
         <v>6439</v>
       </c>
       <c r="B6439">
-        <v>742.4456543719459</v>
+        <v>742.4456543719458</v>
       </c>
     </row>
     <row r="6440" spans="1:2">
@@ -51871,7 +51871,7 @@
         <v>6441</v>
       </c>
       <c r="B6441">
-        <v>959.8193744574525</v>
+        <v>959.8193744574522</v>
       </c>
     </row>
     <row r="6442" spans="1:2">
@@ -52047,7 +52047,7 @@
         <v>6463</v>
       </c>
       <c r="B6463">
-        <v>614.7370185648781</v>
+        <v>614.737018564878</v>
       </c>
     </row>
     <row r="6464" spans="1:2">
@@ -52247,7 +52247,7 @@
         <v>6488</v>
       </c>
       <c r="B6488">
-        <v>960.3556944582026</v>
+        <v>960.3556944582024</v>
       </c>
     </row>
     <row r="6489" spans="1:2">
@@ -52839,7 +52839,7 @@
         <v>6562</v>
       </c>
       <c r="B6562">
-        <v>657.0681993891228</v>
+        <v>657.0681993891227</v>
       </c>
     </row>
     <row r="6563" spans="1:2">
@@ -52847,7 +52847,7 @@
         <v>6563</v>
       </c>
       <c r="B6563">
-        <v>752.6562493589072</v>
+        <v>752.6562493589071</v>
       </c>
     </row>
     <row r="6564" spans="1:2">
@@ -53391,7 +53391,7 @@
         <v>6631</v>
       </c>
       <c r="B6631">
-        <v>856.4766648046888</v>
+        <v>856.4766648046887</v>
       </c>
     </row>
     <row r="6632" spans="1:2">
@@ -54431,7 +54431,7 @@
         <v>6761</v>
       </c>
       <c r="B6761">
-        <v>733.7531673652504</v>
+        <v>733.7531673652503</v>
       </c>
     </row>
     <row r="6762" spans="1:2">
@@ -54535,7 +54535,7 @@
         <v>6774</v>
       </c>
       <c r="B6774">
-        <v>284.6320581030919</v>
+        <v>284.6320581030918</v>
       </c>
     </row>
     <row r="6775" spans="1:2">
@@ -54735,7 +54735,7 @@
         <v>6799</v>
       </c>
       <c r="B6799">
-        <v>696.9141378055193</v>
+        <v>696.9141378055192</v>
       </c>
     </row>
     <row r="6800" spans="1:2">
@@ -54743,7 +54743,7 @@
         <v>6800</v>
       </c>
       <c r="B6800">
-        <v>870.3916777203294</v>
+        <v>870.3916777203293</v>
       </c>
     </row>
     <row r="6801" spans="1:2">
@@ -54935,7 +54935,7 @@
         <v>6824</v>
       </c>
       <c r="B6824">
-        <v>902.7349975469956</v>
+        <v>902.7349975469954</v>
       </c>
     </row>
     <row r="6825" spans="1:2">
@@ -55015,7 +55015,7 @@
         <v>6834</v>
       </c>
       <c r="B6834">
-        <v>973.2449587385286</v>
+        <v>973.2449587385285</v>
       </c>
     </row>
     <row r="6835" spans="1:2">
@@ -55159,7 +55159,7 @@
         <v>6852</v>
       </c>
       <c r="B6852">
-        <v>7.91104238920889</v>
+        <v>7.911042389208889</v>
       </c>
     </row>
     <row r="6853" spans="1:2">
@@ -55487,7 +55487,7 @@
         <v>6893</v>
       </c>
       <c r="B6893">
-        <v>592.6189472771064</v>
+        <v>592.6189472771063</v>
       </c>
     </row>
     <row r="6894" spans="1:2">
@@ -55687,7 +55687,7 @@
         <v>6918</v>
       </c>
       <c r="B6918">
-        <v>612.3103903647622</v>
+        <v>612.310390364762</v>
       </c>
     </row>
     <row r="6919" spans="1:2">
@@ -55695,7 +55695,7 @@
         <v>6919</v>
       </c>
       <c r="B6919">
-        <v>744.3066554674455</v>
+        <v>744.3066554674454</v>
       </c>
     </row>
     <row r="6920" spans="1:2">
@@ -55719,7 +55719,7 @@
         <v>6922</v>
       </c>
       <c r="B6922">
-        <v>970.208742777997</v>
+        <v>970.2087427779968</v>
       </c>
     </row>
     <row r="6923" spans="1:2">
@@ -55895,7 +55895,7 @@
         <v>6944</v>
       </c>
       <c r="B6944">
-        <v>477.3189392469599</v>
+        <v>477.3189392469598</v>
       </c>
     </row>
     <row r="6945" spans="1:2">
@@ -55919,7 +55919,7 @@
         <v>6947</v>
       </c>
       <c r="B6947">
-        <v>763.3885107946857</v>
+        <v>763.3885107946855</v>
       </c>
     </row>
     <row r="6948" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>785.2691945411417</v>
+        <v>785.2691945411416</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -55959,7 +55959,7 @@
         <v>6952</v>
       </c>
       <c r="B6952">
-        <v>794.137524171034</v>
+        <v>794.1375241710339</v>
       </c>
     </row>
     <row r="6953" spans="1:2">
@@ -56071,7 +56071,7 @@
         <v>6966</v>
       </c>
       <c r="B6966">
-        <v>362.9538278301431</v>
+        <v>362.953827830143</v>
       </c>
     </row>
     <row r="6967" spans="1:2">
@@ -56119,7 +56119,7 @@
         <v>6972</v>
       </c>
       <c r="B6972">
-        <v>738.2342235463824</v>
+        <v>738.2342235463823</v>
       </c>
     </row>
     <row r="6973" spans="1:2">
@@ -56151,7 +56151,7 @@
         <v>6976</v>
       </c>
       <c r="B6976">
-        <v>876.8802705162916</v>
+        <v>876.8802705162915</v>
       </c>
     </row>
     <row r="6977" spans="1:2">
@@ -56159,7 +56159,7 @@
         <v>6977</v>
       </c>
       <c r="B6977">
-        <v>722.5285465845209</v>
+        <v>722.5285465845208</v>
       </c>
     </row>
     <row r="6978" spans="1:2">
@@ -56303,7 +56303,7 @@
         <v>6995</v>
       </c>
       <c r="B6995">
-        <v>791.9072535668212</v>
+        <v>791.9072535668211</v>
       </c>
     </row>
     <row r="6996" spans="1:2">
@@ -56351,7 +56351,7 @@
         <v>7001</v>
       </c>
       <c r="B7001">
-        <v>748.0872718661768</v>
+        <v>748.0872718661767</v>
       </c>
     </row>
     <row r="7002" spans="1:2">
@@ -57023,7 +57023,7 @@
         <v>7085</v>
       </c>
       <c r="B7085">
-        <v>585.3830233325577</v>
+        <v>585.3830233325576</v>
       </c>
     </row>
     <row r="7086" spans="1:2">
@@ -57087,7 +57087,7 @@
         <v>7093</v>
       </c>
       <c r="B7093">
-        <v>1682.110533500658</v>
+        <v>1682.110533500657</v>
       </c>
     </row>
     <row r="7094" spans="1:2">
@@ -57271,7 +57271,7 @@
         <v>7116</v>
       </c>
       <c r="B7116">
-        <v>1698.021242961167</v>
+        <v>1698.021242961166</v>
       </c>
     </row>
     <row r="7117" spans="1:2">
@@ -57599,7 +57599,7 @@
         <v>7157</v>
       </c>
       <c r="B7157">
-        <v>489.5839622149372</v>
+        <v>489.5839622149371</v>
       </c>
     </row>
     <row r="7158" spans="1:2">
@@ -57639,7 +57639,7 @@
         <v>7162</v>
       </c>
       <c r="B7162">
-        <v>769.3261300379645</v>
+        <v>769.3261300379644</v>
       </c>
     </row>
     <row r="7163" spans="1:2">
@@ -58247,7 +58247,7 @@
         <v>7238</v>
       </c>
       <c r="B7238">
-        <v>818.134180816625</v>
+        <v>818.1341808166248</v>
       </c>
     </row>
     <row r="7239" spans="1:2">
@@ -58263,7 +58263,7 @@
         <v>7240</v>
       </c>
       <c r="B7240">
-        <v>754.7692915476555</v>
+        <v>754.7692915476554</v>
       </c>
     </row>
     <row r="7241" spans="1:2">
@@ -58399,7 +58399,7 @@
         <v>7257</v>
       </c>
       <c r="B7257">
-        <v>544.69010961443</v>
+        <v>544.6901096144298</v>
       </c>
     </row>
     <row r="7258" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>815.7808203761743</v>
+        <v>815.7808203761742</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -58463,7 +58463,7 @@
         <v>7265</v>
       </c>
       <c r="B7265">
-        <v>613.6350714595114</v>
+        <v>613.6350714595113</v>
       </c>
     </row>
     <row r="7266" spans="1:2">
@@ -58663,7 +58663,7 @@
         <v>7290</v>
       </c>
       <c r="B7290">
-        <v>455.1627687241622</v>
+        <v>455.1627687241621</v>
       </c>
     </row>
     <row r="7291" spans="1:2">
@@ -58783,7 +58783,7 @@
         <v>7305</v>
       </c>
       <c r="B7305">
-        <v>431.8987896752246</v>
+        <v>431.8987896752245</v>
       </c>
     </row>
     <row r="7306" spans="1:2">
@@ -58791,7 +58791,7 @@
         <v>7306</v>
       </c>
       <c r="B7306">
-        <v>586.306197104341</v>
+        <v>586.3061971043409</v>
       </c>
     </row>
     <row r="7307" spans="1:2">
@@ -58823,7 +58823,7 @@
         <v>7310</v>
       </c>
       <c r="B7310">
-        <v>850.0437555060722</v>
+        <v>850.0437555060721</v>
       </c>
     </row>
     <row r="7311" spans="1:2">
@@ -59559,7 +59559,7 @@
         <v>7402</v>
       </c>
       <c r="B7402">
-        <v>536.2350101490501</v>
+        <v>536.23501014905</v>
       </c>
     </row>
     <row r="7403" spans="1:2">
@@ -59591,7 +59591,7 @@
         <v>7406</v>
       </c>
       <c r="B7406">
-        <v>588.6595575447916</v>
+        <v>588.6595575447915</v>
       </c>
     </row>
     <row r="7407" spans="1:2">
@@ -59599,7 +59599,7 @@
         <v>7407</v>
       </c>
       <c r="B7407">
-        <v>622.2835978104077</v>
+        <v>622.2835978104076</v>
       </c>
     </row>
     <row r="7408" spans="1:2">
@@ -59623,7 +59623,7 @@
         <v>7410</v>
       </c>
       <c r="B7410">
-        <v>367.2180114426657</v>
+        <v>367.2180114426656</v>
       </c>
     </row>
     <row r="7411" spans="1:2">
@@ -59743,7 +59743,7 @@
         <v>7425</v>
       </c>
       <c r="B7425">
-        <v>340.4049421155392</v>
+        <v>340.4049421155391</v>
       </c>
     </row>
     <row r="7426" spans="1:2">
@@ -59959,7 +59959,7 @@
         <v>7452</v>
       </c>
       <c r="B7452">
-        <v>603.6472104619328</v>
+        <v>603.6472104619327</v>
       </c>
     </row>
     <row r="7453" spans="1:2">
@@ -59967,7 +59967,7 @@
         <v>7453</v>
       </c>
       <c r="B7453">
-        <v>659.151934474005</v>
+        <v>659.1519344740049</v>
       </c>
     </row>
     <row r="7454" spans="1:2">
@@ -60151,7 +60151,7 @@
         <v>7476</v>
       </c>
       <c r="B7476">
-        <v>623.1452266640721</v>
+        <v>623.145226664072</v>
       </c>
     </row>
     <row r="7477" spans="1:2">
@@ -60303,7 +60303,7 @@
         <v>7495</v>
       </c>
       <c r="B7495">
-        <v>540.3878267668814</v>
+        <v>540.3878267668813</v>
       </c>
     </row>
     <row r="7496" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>58.32758425645827</v>
+        <v>58.32758425645826</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61119,7 +61119,7 @@
         <v>7597</v>
       </c>
       <c r="B7597">
-        <v>502.4146122875309</v>
+        <v>502.4146122875308</v>
       </c>
     </row>
     <row r="7598" spans="1:2">
@@ -61127,7 +61127,7 @@
         <v>7598</v>
       </c>
       <c r="B7598">
-        <v>479.3587136760429</v>
+        <v>479.3587136760428</v>
       </c>
     </row>
     <row r="7599" spans="1:2">
@@ -61151,7 +61151,7 @@
         <v>7601</v>
       </c>
       <c r="B7601">
-        <v>403.0459459190152</v>
+        <v>403.0459459190151</v>
       </c>
     </row>
     <row r="7602" spans="1:2">
@@ -61319,7 +61319,7 @@
         <v>7622</v>
       </c>
       <c r="B7622">
-        <v>447.9297754900002</v>
+        <v>447.9297754900001</v>
       </c>
     </row>
     <row r="7623" spans="1:2">
@@ -61519,7 +61519,7 @@
         <v>7647</v>
       </c>
       <c r="B7647">
-        <v>357.7664704458373</v>
+        <v>357.7664704458372</v>
       </c>
     </row>
     <row r="7648" spans="1:2">
@@ -62223,7 +62223,7 @@
         <v>7735</v>
       </c>
       <c r="B7735">
-        <v>54.95961188016209</v>
+        <v>54.95961188016208</v>
       </c>
     </row>
     <row r="7736" spans="1:2">
@@ -62231,7 +62231,7 @@
         <v>7736</v>
       </c>
       <c r="B7736">
-        <v>86.14676645930915</v>
+        <v>86.14676645930913</v>
       </c>
     </row>
     <row r="7737" spans="1:2">
@@ -62247,7 +62247,7 @@
         <v>7738</v>
       </c>
       <c r="B7738">
-        <v>115.5722710250629</v>
+        <v>115.5722710250628</v>
       </c>
     </row>
     <row r="7739" spans="1:2">
@@ -62407,7 +62407,7 @@
         <v>7758</v>
       </c>
       <c r="B7758">
-        <v>17.28934493347581</v>
+        <v>17.2893449334758</v>
       </c>
     </row>
     <row r="7759" spans="1:2">
@@ -62415,7 +62415,7 @@
         <v>7759</v>
       </c>
       <c r="B7759">
-        <v>6.515203646272635</v>
+        <v>6.515203646272634</v>
       </c>
     </row>
     <row r="7760" spans="1:2">
@@ -62463,7 +62463,7 @@
         <v>7765</v>
       </c>
       <c r="B7765">
-        <v>323.7555764091882</v>
+        <v>323.7555764091881</v>
       </c>
     </row>
     <row r="7766" spans="1:2">
@@ -63023,7 +63023,7 @@
         <v>7835</v>
       </c>
       <c r="B7835">
-        <v>92.9820622940077</v>
+        <v>92.98206229400768</v>
       </c>
     </row>
     <row r="7836" spans="1:2">
@@ -63591,7 +63591,7 @@
         <v>7906</v>
       </c>
       <c r="B7906">
-        <v>480.7801082135504</v>
+        <v>480.7801082135503</v>
       </c>
     </row>
     <row r="7907" spans="1:2">
@@ -63815,7 +63815,7 @@
         <v>7934</v>
       </c>
       <c r="B7934">
-        <v>465.5521370447069</v>
+        <v>465.5521370447068</v>
       </c>
     </row>
     <row r="7935" spans="1:2">
@@ -63839,7 +63839,7 @@
         <v>7937</v>
       </c>
       <c r="B7937">
-        <v>404.191853680181</v>
+        <v>404.1918536801809</v>
       </c>
     </row>
     <row r="7938" spans="1:2">
@@ -63999,7 +63999,7 @@
         <v>7957</v>
       </c>
       <c r="B7957">
-        <v>580.7847387359612</v>
+        <v>580.7847387359611</v>
       </c>
     </row>
     <row r="7958" spans="1:2">
@@ -64015,7 +64015,7 @@
         <v>7959</v>
       </c>
       <c r="B7959">
-        <v>524.5502678376223</v>
+        <v>524.5502678376222</v>
       </c>
     </row>
     <row r="7960" spans="1:2">
@@ -64023,7 +64023,7 @@
         <v>7960</v>
       </c>
       <c r="B7960">
-        <v>440.561969578054</v>
+        <v>440.5619695780539</v>
       </c>
     </row>
     <row r="7961" spans="1:2">
@@ -64927,7 +64927,7 @@
         <v>8073</v>
       </c>
       <c r="B8073">
-        <v>330.5284481126519</v>
+        <v>330.5284481126518</v>
       </c>
     </row>
     <row r="8074" spans="1:2">
@@ -65383,7 +65383,7 @@
         <v>8130</v>
       </c>
       <c r="B8130">
-        <v>715.0874729129093</v>
+        <v>715.0874729129092</v>
       </c>
     </row>
     <row r="8131" spans="1:2">
@@ -66335,7 +66335,7 @@
         <v>8249</v>
       </c>
       <c r="B8249">
-        <v>342.0344170904963</v>
+        <v>342.0344170904962</v>
       </c>
     </row>
     <row r="8250" spans="1:2">
@@ -66447,7 +66447,7 @@
         <v>8263</v>
       </c>
       <c r="B8263">
-        <v>238.1970035244724</v>
+        <v>238.1970035244723</v>
       </c>
     </row>
     <row r="8264" spans="1:2">
@@ -66487,7 +66487,7 @@
         <v>8268</v>
       </c>
       <c r="B8268">
-        <v>524.5209607337562</v>
+        <v>524.5209607337561</v>
       </c>
     </row>
     <row r="8269" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>78.73324146533176</v>
+        <v>78.73324146533174</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66679,7 +66679,7 @@
         <v>8292</v>
       </c>
       <c r="B8292">
-        <v>326.5690583803371</v>
+        <v>326.569058380337</v>
       </c>
     </row>
     <row r="8293" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>305.1572882957392</v>
+        <v>305.1572882957391</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67783,7 +67783,7 @@
         <v>8430</v>
       </c>
       <c r="B8430">
-        <v>62.56392612030801</v>
+        <v>62.563926120308</v>
       </c>
     </row>
     <row r="8431" spans="1:2">
@@ -67839,7 +67839,7 @@
         <v>8437</v>
       </c>
       <c r="B8437">
-        <v>355.1991681471639</v>
+        <v>355.1991681471638</v>
       </c>
     </row>
     <row r="8438" spans="1:2">
@@ -67871,7 +67871,7 @@
         <v>8441</v>
       </c>
       <c r="B8441">
-        <v>215.7433658974334</v>
+        <v>215.7433658974333</v>
       </c>
     </row>
     <row r="8442" spans="1:2">
@@ -68031,7 +68031,7 @@
         <v>8461</v>
       </c>
       <c r="B8461">
-        <v>445.0342336280261</v>
+        <v>445.034233628026</v>
       </c>
     </row>
     <row r="8462" spans="1:2">
@@ -68167,7 +68167,7 @@
         <v>8478</v>
       </c>
       <c r="B8478">
-        <v>226.9202160988611</v>
+        <v>226.920216098861</v>
       </c>
     </row>
     <row r="8479" spans="1:2">
@@ -68223,7 +68223,7 @@
         <v>8485</v>
       </c>
       <c r="B8485">
-        <v>539.0924527759983</v>
+        <v>539.0924527759981</v>
       </c>
     </row>
     <row r="8486" spans="1:2">
@@ -68255,7 +68255,7 @@
         <v>8489</v>
       </c>
       <c r="B8489">
-        <v>502.3706516317317</v>
+        <v>502.3706516317316</v>
       </c>
     </row>
     <row r="8490" spans="1:2">
@@ -68407,7 +68407,7 @@
         <v>8508</v>
       </c>
       <c r="B8508">
-        <v>392.5452106037792</v>
+        <v>392.5452106037791</v>
       </c>
     </row>
     <row r="8509" spans="1:2">
@@ -68415,7 +68415,7 @@
         <v>8509</v>
       </c>
       <c r="B8509">
-        <v>426.6967787389857</v>
+        <v>426.6967787389856</v>
       </c>
     </row>
     <row r="8510" spans="1:2">
@@ -68423,7 +68423,7 @@
         <v>8510</v>
       </c>
       <c r="B8510">
-        <v>499.8180028849914</v>
+        <v>499.8180028849913</v>
       </c>
     </row>
     <row r="8511" spans="1:2">
@@ -69023,7 +69023,7 @@
         <v>8585</v>
       </c>
       <c r="B8585">
-        <v>3.694013906806927</v>
+        <v>3.694013906806926</v>
       </c>
     </row>
     <row r="8586" spans="1:2">
@@ -69359,7 +69359,7 @@
         <v>8627</v>
       </c>
       <c r="B8627">
-        <v>5.54522642961518</v>
+        <v>5.545226429615179</v>
       </c>
     </row>
     <row r="8628" spans="1:2">
@@ -69415,7 +69415,7 @@
         <v>8634</v>
       </c>
       <c r="B8634">
-        <v>5.718783098710429</v>
+        <v>5.718783098710428</v>
       </c>
     </row>
     <row r="8635" spans="1:2">
@@ -69551,7 +69551,7 @@
         <v>8651</v>
       </c>
       <c r="B8651">
-        <v>193.5452862161071</v>
+        <v>193.545286216107</v>
       </c>
     </row>
     <row r="8652" spans="1:2">
@@ -69807,7 +69807,7 @@
         <v>8683</v>
       </c>
       <c r="B8683">
-        <v>192.2795124001288</v>
+        <v>192.2795124001287</v>
       </c>
     </row>
     <row r="8684" spans="1:2">
@@ -70279,7 +70279,7 @@
         <v>8742</v>
       </c>
       <c r="B8742">
-        <v>10.31829859366932</v>
+        <v>10.31829859366931</v>
       </c>
     </row>
     <row r="8743" spans="1:2">
